--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgc8XiXG7AGLx+NmhIroOEl8KYUkQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miMGsHqllkXiYa9Q/yDpzu7q5PxWw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="355">
   <si>
     <t>vocabulario</t>
   </si>
@@ -986,22 +986,79 @@
     <t>respuesta</t>
   </si>
   <si>
-    <t>Somos Innovatronik una empresa especializada en venta de componentes electrónicos y prototipado.</t>
-  </si>
-  <si>
-    <t>Innivatronik es la empresa con la mejor calidad de componentes electronicos.</t>
-  </si>
-  <si>
-    <t>Nos place conocerte, somos Innovtronik la mejor empresa de prototipado y venta de componenetes electronicos.</t>
-  </si>
-  <si>
-    <t>Innovatronik, la empresa com mayor diversidad de componentes electronicos en Colombia.</t>
-  </si>
-  <si>
-    <t>Innovatronik, estamos complacidos de conocerte.</t>
-  </si>
-  <si>
-    <t>Nuestros componentes tienen un precio promedio de 50g.</t>
+    <t>Somos Flowersink una empresa especializada en adecuacion de ambientes, organizacion de eventos y venta de abundantes tipos de flores.</t>
+  </si>
+  <si>
+    <t>Flowersink, la empresa con la mejor calidad en adecuaciones.</t>
+  </si>
+  <si>
+    <t>Usualmente eso depende del tipo de base que se implemente, en promedio estimamos que la hasta la categoria 2 no se superan los 50g. Para las demas en promedio se tienen 100g.</t>
+  </si>
+  <si>
+    <t>Esa caracteristica depende de muchos factores segun el producto elegido. En la seccion del catalogo de lo especificamos mas a fondo.</t>
+  </si>
+  <si>
+    <t>Asumimos que te refieres a la maxima altura que podria llegar a tener alguna de nuestros ejemplares. Si es asi, este valor seria de 2m</t>
+  </si>
+  <si>
+    <t>Asumiendo que te refieres a el tejado con nuestros adornos, posee una altura de 3m</t>
+  </si>
+  <si>
+    <t>Fui diseñado para entregar de manera eficiente y optima informacion general a la mano del cliente.</t>
+  </si>
+  <si>
+    <t>Flowersink, me permitio aparece a travez de su equipo de ingenieros.</t>
+  </si>
+  <si>
+    <t>Ahora mismo, es hora de elegir una espectacular flor para la persona que mas amas, pregunta por nuestras recomendaciones.</t>
+  </si>
+  <si>
+    <t>Esta es una fecha muy importante ya que inaguramos nuestra categoria numero 10, que esperas para visitarla!</t>
+  </si>
+  <si>
+    <t>La empresa lleva mas de 10 años supliendo las necesidades de un buen performance y logistica en evento.</t>
+  </si>
+  <si>
+    <t>Por ahora solo se soporta el español, estamos trabajando para expardir nuestro segmento objetivo a otros idiomas.</t>
+  </si>
+  <si>
+    <t>Nuestro proposito es que sin importar cual se la ocacion, esta sea inolvidable</t>
+  </si>
+  <si>
+    <t>Porque tengo la actitud sofka xD</t>
+  </si>
+  <si>
+    <t>Actualmente se cuenta con 3 grupos altamente sofisticados.</t>
+  </si>
+  <si>
+    <t>¡Gracias por visitarnos! Estamos contentos de haberte atendido el dia de hoy. Nuestro objetivo es que siempre esté satisfecho, así que avísanos tu nivel de satisfacción (floristeria-la-mejor.com/feed). Esperamos volver a verle de nuevo. ¡Que tengas un gran día!</t>
+  </si>
+  <si>
+    <t>Fue un placer conocerl@, y estamos muy contentos de que hayamos tenido la oportunidad de hablar sobre lo que está buscando. Sé que este puede ser un momento emocionante y potencialmente intenso para ti, así que déjanos decirte que está en buenas manos. Esperamos que vuelva pronto.</t>
+  </si>
+  <si>
+    <t>Somos 100% made in Colombia!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jmmm </t>
+  </si>
+  <si>
+    <t>Somo Geeks</t>
+  </si>
+  <si>
+    <t>Soñamos con lograr cumplir a cabalidad todos nuestros objetivos</t>
+  </si>
+  <si>
+    <t>Siento que estas apunto de tener una de las mejor elecciones de tu vida</t>
+  </si>
+  <si>
+    <t>Habia una vez, una persona llamada pill, que decidio no dar el siguente paso en los 15 de su hijo, solo porque se le era muy dificil la parte de organizacion, que mal que no nos hubiera conocido!</t>
+  </si>
+  <si>
+    <t>Just Do It</t>
+  </si>
+  <si>
+    <t>El clima esta perfecto para fotografiar unas buenas flores, conoce nuestras sugerencias!!</t>
   </si>
   <si>
     <r>
@@ -1029,19 +1086,21 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dentro de nuestro amplio catalogo de flores de seguro encontraras las tuyas, perfecta para la ocacion. A continuacion te moestramos una guia:
+      <t xml:space="preserve">Dentro de nuestro amplio catalogo de flores de seguro encontraras las tuyas, perfecta para la ocacion. A continuacion te moestramos una guia:\n
+\n
 </t>
     </r>
     <r>
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">#1 Calas
+      <t xml:space="preserve">#1 Calas\n
 </t>
     </r>
     <r>
-      <t xml:space="preserve">Significado: magnífica belleza.
-Flor perfecta para: regalar a tus seres queridos, bodas.
+      <t xml:space="preserve">Significado: magnífica belleza.\n
+Flor perfecta para: regalar a tus seres queridos, bodas.\n
+\n
 </t>
     </r>
     <r>
@@ -1051,9 +1110,10 @@
       <t>#2 Camelia blanca</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: adoración.
-Flor perfecta para: regalar a tus seres queridos, nacimientos.
+      <t xml:space="preserve">\n
+Significado: adoración.\n
+Flor perfecta para: regalar a tus seres queridos, nacimientos.\n
+\n
 </t>
     </r>
     <r>
@@ -1063,9 +1123,10 @@
       <t>#3 Crisantemo</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: abundancia y riqueza.
-Flor perfecta para: graduaciones, despedidas de soltera.
+      <t xml:space="preserve">\n
+Significado: abundancia y riqueza.\n
+Flor perfecta para: graduaciones, despedidas de soltera.\n
+\n
 </t>
     </r>
     <r>
@@ -1075,9 +1136,10 @@
       <t>#4 Narciso</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: caballerosidad.
-Flor perfecta para: decir "Gracias" o "Felicitaciones".
+      <t xml:space="preserve">\n
+Significado: caballerosidad.\n
+Flor perfecta para: decir "Gracias" o "Felicitaciones".\n
+\n
 Puedes obtener mas informacion en: </t>
     </r>
     <r>
@@ -1090,7 +1152,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dentro de nuestro amplio catalogo de flores de seguro encontraras las tuyas, perfecta para la ocacion. A continuacion te moestramos una guia:
+      <t xml:space="preserve">Dentro de nuestro amplio catalogo de flores de seguro encontraras las tuyas, perfecta para la ocacion. A continuacion te moestramos una guia:\n
+\n
 </t>
     </r>
     <r>
@@ -1100,9 +1163,10 @@
       <t>#1 Dalia</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: dignidad y elegancia.
-Flor perfecta para: regalar cuando alguien se jubila, o para desear mejoría cuando alguien está enfermo.
+      <t xml:space="preserve">\n
+Significado: dignidad y elegancia.\n
+Flor perfecta para: regalar cuando alguien se jubila, o para desear mejoría cuando alguien está enfermo.\n
+\n
 </t>
     </r>
     <r>
@@ -1112,9 +1176,10 @@
       <t>#2 Margarita</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: inocencia.
-Flor perfecta para: Baby showers, fiestas de cumpleaños infantiles.
+      <t xml:space="preserve">\n
+Significado: inocencia.\n
+Flor perfecta para: Baby showers, fiestas de cumpleaños infantiles.\n
+\n
 </t>
     </r>
     <r>
@@ -1124,9 +1189,10 @@
       <t>#3 No me olvides</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: recuerdos.
-Flor perfecta para: aniversarios.
+      <t xml:space="preserve">\n
+Significado: recuerdos.\n
+Flor perfecta para: aniversarios.\n
+\n
 </t>
     </r>
     <r>
@@ -1136,9 +1202,10 @@
       <t>#4 Fresia</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Significado: inocencia.
-Flor perfecta para: Baby showers, fiestas de cumpleaños infantiles.
+      <t xml:space="preserve">\n
+Significado: inocencia.\n
+Flor perfecta para: Baby showers, fiestas de cumpleaños infantiles.\n
+\n
 Puedes obtener mas informacion en: </t>
     </r>
     <r>
@@ -1146,12 +1213,13 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>floristeria-la-mejor.com/catalogo</t>
+      <t>floristeria-la-mejor.com/catalogo\</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Confiamos en que te sentiras agusto con nuestros productos.
+      <t xml:space="preserve">Confiamos en que te sentiras agusto con nuestros productos.\n
+\n
 Danos tu opinión y tus impresiones sobre nuestros servicios en </t>
     </r>
     <r>
@@ -1162,27 +1230,25 @@
       <t>floristeria-la-mejor.com/feed.</t>
     </r>
     <r>
-      <t xml:space="preserve"> Sin duda, será una oportunidad para comprender mejor cómo nuestro producto puede ayudar a otras personas y también para mejorarlo.
-¡Si necesitas ayuda no dudes en hablar con nosotros!
- Gran abrazo,</t>
+      <t xml:space="preserve"> Sin duda, será una oportunidad para comprender mejor cómo nuestro producto puede ayudar a otras personas y también para mejorarlo.\n
+\n
+¡Si necesitas ayuda no dudes en hablar con nosotros!\n
+\n
+ Gran abrazo\n</t>
     </r>
   </si>
   <si>
-    <t>Si puedes, comparte comentarios sobre el producto, nos será de gran ayuda para entender cómo lo estás disfrutando mejor y, si hay algún punto de mejora que podamos aprovechar para mejorar aún más. 
-Si aun no has adquirido algun producto, no te preocupes estaremos a tu disposicion cuando lo desees y, por supuesto, si necesitas ayuda, ¡siempre estamos disponibles!
-Un gran abrazo</t>
+    <t>Si puedes, comparte comentarios sobre el producto, nos será de gran ayuda para entender cómo lo estás disfrutando mejor y, si hay algún punto de mejora que podamos aprovechar para mejorar aún más. \n
+\n
+Si aun no has adquirido algun producto, no te preocupes estaremos a tu disposicion cuando lo desees y, por supuesto, si necesitas ayuda, ¡siempre estamos disponibles!\n
+\n
+Un gran abrazo\n</t>
   </si>
   <si>
     <t>Cordial saludo! Esperamos te encuentres bien. Cuentanos, ¿En qué podemos colaborarte?</t>
   </si>
   <si>
     <t xml:space="preserve">Buen día!! Nos complace que nos visites, cuentamos ¿qué estas buscando? </t>
-  </si>
-  <si>
-    <t>¡Gracias por visitarnos! Estamos contentos de haberte atendido el dia de hoy. Nuestro objetivo es que siempre esté satisfecho, así que avísanos tu nivel de satisfacción (floristeria-la-mejor.com/feed). Esperamos volver a verle de nuevo. ¡Que tengas un gran día!</t>
-  </si>
-  <si>
-    <t>Fue un placer conocerl@, y estamos muy contentos de que hayamos tenido la oportunidad de hablar sobre lo que está buscando. Sé que este puede ser un momento emocionante y potencialmente intenso para ti, así que déjanos decirte que está en buenas manos. Esperamos que vuelva pronto.</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1362,7 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1317,7 +1383,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30885,6031 +30951,4114 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>178</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>192</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>254</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="10"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="10"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="10"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="10"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="10"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="10"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="10"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="10"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="10"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="10"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="10"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="10"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="10"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="10"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="10"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="10"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="10"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="10"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="10"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="10"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="10"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="10"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="10"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="10"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="10"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="10"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="10"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="10"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="10"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="10"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="10"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="10"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="10"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="10"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="10"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="10"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="17"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="10"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="10"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="17"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="10"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="10"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="17"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="10"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="10"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="17"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="10"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="10"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="10"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="10"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="17"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="10"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="10"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="10"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="10"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="17"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" s="10"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="17"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="10"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="10"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="17"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="10"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="17"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="10"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="10"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="17"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="10"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="17"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="10"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="17"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="10"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="17"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="10"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="17"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="10"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" s="10"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="10"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="17"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="10"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="17"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="10"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="17"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" s="10"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="17"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="10"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="10"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="17"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" s="10"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="17"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="10"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="17"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="10"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="17"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="10"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="17"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="10"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="17"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="10"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="17"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="10"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="17"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C112" s="10"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="17"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" s="10"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="17"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="10"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="17"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="10"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="17"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="10"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="17"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="10"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="17"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="10"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="17"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="10"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="17"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="10"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="17"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="10"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="17"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="10"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="10"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="17"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="10"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="17"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" s="10"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="17"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="10"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="17"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" s="10"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="17"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="10"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="17"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C129" s="10"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="17"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C130" s="10"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="17"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="10"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="17"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="10"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="17"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="10"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="17"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C134" s="10"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="17"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="10"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="17"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="10"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="17"/>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C137" s="10"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="17"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" s="10"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="17"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C139" s="10"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="17"/>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="10"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="17"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="10"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="17"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="10"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="17"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="10"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="17"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="10"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="17"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C145" s="10"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="17"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C146" s="10"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="17"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C147" s="10"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="17"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C148" s="10"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="17"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="10"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="17"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" s="10"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="17"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C151" s="10"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="17"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C152" s="10"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="17"/>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C153" s="10"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="17"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C154" s="10"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="17"/>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C155" s="10"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="17"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C156" s="10"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="17"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157" s="10"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="17"/>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C158" s="10"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="17"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="10"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="17"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C160" s="10"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="17"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C161" s="10"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="17"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C162" s="10"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C163" s="10"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="17"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C164" s="10"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="17"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C165" s="10"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="17"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C166" s="10"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="17"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C167" s="10"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="17"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C168" s="10"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="17"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169" s="10"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="17"/>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C170" s="10"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="17"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C171" s="10"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="17"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C172" s="10"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="17"/>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C173" s="10"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="17"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C174" s="10"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="17"/>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" s="10"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="17"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" s="10"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="17"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C177" s="10"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="17"/>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C178" s="10"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="17"/>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C179" s="10"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="17"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="10"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="17"/>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C181" s="10"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="17"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C182" s="10"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="17"/>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C183" s="10"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="17"/>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C184" s="10"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="17"/>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C185" s="10"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="17"/>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C186" s="10"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="17"/>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C187" s="10"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="17"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C188" s="10"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="17"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C189" s="10"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="17"/>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C190" s="10"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="17"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C191" s="10"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="17"/>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C192" s="10"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="17"/>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C193" s="10"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="17"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C194" s="10"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="17"/>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C195" s="10"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="17"/>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C196" s="10"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="17"/>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197" s="10"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="17"/>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C198" s="10"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="17"/>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C199" s="10"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="17"/>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C200" s="10"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="17"/>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C201" s="10"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="17"/>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="10"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="17"/>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C203" s="10"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="17"/>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C204" s="10"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="17"/>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C205" s="10"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="17"/>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C206" s="10"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="17"/>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C207" s="10"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="17"/>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C208" s="10"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="17"/>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C209" s="10"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="17"/>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C210" s="10"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="17"/>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C211" s="10"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="17"/>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C212" s="10"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="17"/>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C213" s="10"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="17"/>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C214" s="10"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C215" s="10"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="17"/>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C216" s="10"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="17"/>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C217" s="10"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="17"/>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C218" s="10"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="17"/>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C219" s="10"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="17"/>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220" s="10"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="17"/>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C221" s="10"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="17"/>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C222" s="10"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="17"/>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C223" s="10"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="17"/>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C224" s="10"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="17"/>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C225" s="10"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="17"/>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C226" s="10"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="17"/>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C227" s="10"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="17"/>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C228" s="10"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="17"/>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C229" s="10"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="17"/>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C230" s="10"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="17"/>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C231" s="10"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="17"/>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C232" s="10"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="17"/>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C233" s="10"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="17"/>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C234" s="10"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="17"/>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C235" s="10"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="17"/>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C236" s="10"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="17"/>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C237" s="10"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="17"/>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C238" s="10"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="17"/>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C239" s="10"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="17"/>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C240" s="10"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="17"/>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C241" s="10"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="17"/>
     </row>
     <row r="242">
-      <c r="A242" s="11"/>
-      <c r="B242" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="14"/>
-      <c r="G242" s="14"/>
-      <c r="H242" s="14"/>
-      <c r="I242" s="14"/>
-      <c r="J242" s="14"/>
-      <c r="K242" s="14"/>
-      <c r="L242" s="14"/>
-      <c r="M242" s="14"/>
-      <c r="N242" s="14"/>
-      <c r="O242" s="14"/>
-      <c r="P242" s="14"/>
-      <c r="Q242" s="14"/>
-      <c r="R242" s="14"/>
-      <c r="S242" s="14"/>
-      <c r="T242" s="14"/>
-      <c r="U242" s="14"/>
-      <c r="V242" s="14"/>
-      <c r="W242" s="14"/>
-      <c r="X242" s="14"/>
-      <c r="Y242" s="14"/>
-      <c r="Z242" s="14"/>
-      <c r="AA242" s="14"/>
-      <c r="AB242" s="14"/>
-      <c r="AC242" s="14"/>
-      <c r="AD242" s="14"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="17"/>
     </row>
     <row r="243">
-      <c r="A243" s="11"/>
-      <c r="B243" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
-      <c r="F243" s="14"/>
-      <c r="G243" s="14"/>
-      <c r="H243" s="14"/>
-      <c r="I243" s="14"/>
-      <c r="J243" s="14"/>
-      <c r="K243" s="14"/>
-      <c r="L243" s="14"/>
-      <c r="M243" s="14"/>
-      <c r="N243" s="14"/>
-      <c r="O243" s="14"/>
-      <c r="P243" s="14"/>
-      <c r="Q243" s="14"/>
-      <c r="R243" s="14"/>
-      <c r="S243" s="14"/>
-      <c r="T243" s="14"/>
-      <c r="U243" s="14"/>
-      <c r="V243" s="14"/>
-      <c r="W243" s="14"/>
-      <c r="X243" s="14"/>
-      <c r="Y243" s="14"/>
-      <c r="Z243" s="14"/>
-      <c r="AA243" s="14"/>
-      <c r="AB243" s="14"/>
-      <c r="AC243" s="14"/>
-      <c r="AD243" s="14"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="17"/>
     </row>
     <row r="244">
-      <c r="A244" s="11"/>
-      <c r="B244" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="D244" s="14"/>
-      <c r="E244" s="14"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="14"/>
-      <c r="H244" s="14"/>
-      <c r="I244" s="14"/>
-      <c r="J244" s="14"/>
-      <c r="K244" s="14"/>
-      <c r="L244" s="14"/>
-      <c r="M244" s="14"/>
-      <c r="N244" s="14"/>
-      <c r="O244" s="14"/>
-      <c r="P244" s="14"/>
-      <c r="Q244" s="14"/>
-      <c r="R244" s="14"/>
-      <c r="S244" s="14"/>
-      <c r="T244" s="14"/>
-      <c r="U244" s="14"/>
-      <c r="V244" s="14"/>
-      <c r="W244" s="14"/>
-      <c r="X244" s="14"/>
-      <c r="Y244" s="14"/>
-      <c r="Z244" s="14"/>
-      <c r="AA244" s="14"/>
-      <c r="AB244" s="14"/>
-      <c r="AC244" s="14"/>
-      <c r="AD244" s="14"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="17"/>
     </row>
     <row r="245">
-      <c r="A245" s="11"/>
-      <c r="B245" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="D245" s="14"/>
-      <c r="E245" s="14"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="14"/>
-      <c r="H245" s="14"/>
-      <c r="I245" s="14"/>
-      <c r="J245" s="14"/>
-      <c r="K245" s="14"/>
-      <c r="L245" s="14"/>
-      <c r="M245" s="14"/>
-      <c r="N245" s="14"/>
-      <c r="O245" s="14"/>
-      <c r="P245" s="14"/>
-      <c r="Q245" s="14"/>
-      <c r="R245" s="14"/>
-      <c r="S245" s="14"/>
-      <c r="T245" s="14"/>
-      <c r="U245" s="14"/>
-      <c r="V245" s="14"/>
-      <c r="W245" s="14"/>
-      <c r="X245" s="14"/>
-      <c r="Y245" s="14"/>
-      <c r="Z245" s="14"/>
-      <c r="AA245" s="14"/>
-      <c r="AB245" s="14"/>
-      <c r="AC245" s="14"/>
-      <c r="AD245" s="14"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="17"/>
     </row>
     <row r="246">
-      <c r="A246" s="11"/>
-      <c r="B246" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="14"/>
-      <c r="I246" s="14"/>
-      <c r="J246" s="14"/>
-      <c r="K246" s="14"/>
-      <c r="L246" s="14"/>
-      <c r="M246" s="14"/>
-      <c r="N246" s="14"/>
-      <c r="O246" s="14"/>
-      <c r="P246" s="14"/>
-      <c r="Q246" s="14"/>
-      <c r="R246" s="14"/>
-      <c r="S246" s="14"/>
-      <c r="T246" s="14"/>
-      <c r="U246" s="14"/>
-      <c r="V246" s="14"/>
-      <c r="W246" s="14"/>
-      <c r="X246" s="14"/>
-      <c r="Y246" s="14"/>
-      <c r="Z246" s="14"/>
-      <c r="AA246" s="14"/>
-      <c r="AB246" s="14"/>
-      <c r="AC246" s="14"/>
-      <c r="AD246" s="14"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="17"/>
     </row>
     <row r="247">
-      <c r="A247" s="11"/>
-      <c r="B247" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D247" s="14"/>
-      <c r="E247" s="14"/>
-      <c r="F247" s="14"/>
-      <c r="G247" s="14"/>
-      <c r="H247" s="14"/>
-      <c r="I247" s="14"/>
-      <c r="J247" s="14"/>
-      <c r="K247" s="14"/>
-      <c r="L247" s="14"/>
-      <c r="M247" s="14"/>
-      <c r="N247" s="14"/>
-      <c r="O247" s="14"/>
-      <c r="P247" s="14"/>
-      <c r="Q247" s="14"/>
-      <c r="R247" s="14"/>
-      <c r="S247" s="14"/>
-      <c r="T247" s="14"/>
-      <c r="U247" s="14"/>
-      <c r="V247" s="14"/>
-      <c r="W247" s="14"/>
-      <c r="X247" s="14"/>
-      <c r="Y247" s="14"/>
-      <c r="Z247" s="14"/>
-      <c r="AA247" s="14"/>
-      <c r="AB247" s="14"/>
-      <c r="AC247" s="14"/>
-      <c r="AD247" s="14"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="17"/>
     </row>
     <row r="248">
-      <c r="A248" s="11"/>
-      <c r="B248" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D248" s="14"/>
-      <c r="E248" s="14"/>
-      <c r="F248" s="14"/>
-      <c r="G248" s="14"/>
-      <c r="H248" s="14"/>
-      <c r="I248" s="14"/>
-      <c r="J248" s="14"/>
-      <c r="K248" s="14"/>
-      <c r="L248" s="14"/>
-      <c r="M248" s="14"/>
-      <c r="N248" s="14"/>
-      <c r="O248" s="14"/>
-      <c r="P248" s="14"/>
-      <c r="Q248" s="14"/>
-      <c r="R248" s="14"/>
-      <c r="S248" s="14"/>
-      <c r="T248" s="14"/>
-      <c r="U248" s="14"/>
-      <c r="V248" s="14"/>
-      <c r="W248" s="14"/>
-      <c r="X248" s="14"/>
-      <c r="Y248" s="14"/>
-      <c r="Z248" s="14"/>
-      <c r="AA248" s="14"/>
-      <c r="AB248" s="14"/>
-      <c r="AC248" s="14"/>
-      <c r="AD248" s="14"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="17"/>
     </row>
     <row r="249">
-      <c r="A249" s="11"/>
-      <c r="B249" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C249" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="D249" s="14"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="14"/>
-      <c r="G249" s="14"/>
-      <c r="H249" s="14"/>
-      <c r="I249" s="14"/>
-      <c r="J249" s="14"/>
-      <c r="K249" s="14"/>
-      <c r="L249" s="14"/>
-      <c r="M249" s="14"/>
-      <c r="N249" s="14"/>
-      <c r="O249" s="14"/>
-      <c r="P249" s="14"/>
-      <c r="Q249" s="14"/>
-      <c r="R249" s="14"/>
-      <c r="S249" s="14"/>
-      <c r="T249" s="14"/>
-      <c r="U249" s="14"/>
-      <c r="V249" s="14"/>
-      <c r="W249" s="14"/>
-      <c r="X249" s="14"/>
-      <c r="Y249" s="14"/>
-      <c r="Z249" s="14"/>
-      <c r="AA249" s="14"/>
-      <c r="AB249" s="14"/>
-      <c r="AC249" s="14"/>
-      <c r="AD249" s="14"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="17"/>
     </row>
     <row r="250">
-      <c r="A250" s="11"/>
-      <c r="B250" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="D250" s="14"/>
-      <c r="E250" s="14"/>
-      <c r="F250" s="14"/>
-      <c r="G250" s="14"/>
-      <c r="H250" s="14"/>
-      <c r="I250" s="14"/>
-      <c r="J250" s="14"/>
-      <c r="K250" s="14"/>
-      <c r="L250" s="14"/>
-      <c r="M250" s="14"/>
-      <c r="N250" s="14"/>
-      <c r="O250" s="14"/>
-      <c r="P250" s="14"/>
-      <c r="Q250" s="14"/>
-      <c r="R250" s="14"/>
-      <c r="S250" s="14"/>
-      <c r="T250" s="14"/>
-      <c r="U250" s="14"/>
-      <c r="V250" s="14"/>
-      <c r="W250" s="14"/>
-      <c r="X250" s="14"/>
-      <c r="Y250" s="14"/>
-      <c r="Z250" s="14"/>
-      <c r="AA250" s="14"/>
-      <c r="AB250" s="14"/>
-      <c r="AC250" s="14"/>
-      <c r="AD250" s="14"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="17"/>
     </row>
     <row r="251">
-      <c r="A251" s="11"/>
-      <c r="B251" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C251" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="D251" s="14"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="14"/>
-      <c r="H251" s="14"/>
-      <c r="I251" s="14"/>
-      <c r="J251" s="14"/>
-      <c r="K251" s="14"/>
-      <c r="L251" s="14"/>
-      <c r="M251" s="14"/>
-      <c r="N251" s="14"/>
-      <c r="O251" s="14"/>
-      <c r="P251" s="14"/>
-      <c r="Q251" s="14"/>
-      <c r="R251" s="14"/>
-      <c r="S251" s="14"/>
-      <c r="T251" s="14"/>
-      <c r="U251" s="14"/>
-      <c r="V251" s="14"/>
-      <c r="W251" s="14"/>
-      <c r="X251" s="14"/>
-      <c r="Y251" s="14"/>
-      <c r="Z251" s="14"/>
-      <c r="AA251" s="14"/>
-      <c r="AB251" s="14"/>
-      <c r="AC251" s="14"/>
-      <c r="AD251" s="14"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="17"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="10"/>
+      <c r="C252" s="17"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="10"/>
+      <c r="C253" s="17"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="10"/>
+      <c r="C254" s="17"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="10"/>
+      <c r="C255" s="17"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="10"/>
+      <c r="C256" s="17"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="10"/>
+      <c r="C257" s="17"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="10"/>
+      <c r="C258" s="17"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="10"/>
+      <c r="C259" s="17"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="10"/>
+      <c r="C260" s="17"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="10"/>
+      <c r="C261" s="17"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="10"/>
+      <c r="C262" s="17"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="10"/>
+      <c r="C263" s="17"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="10"/>
+      <c r="C264" s="17"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="10"/>
+      <c r="C265" s="17"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="10"/>
+      <c r="C266" s="17"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="10"/>
+      <c r="C267" s="17"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="10"/>
+      <c r="C268" s="17"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="10"/>
+      <c r="C269" s="17"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="10"/>
+      <c r="C270" s="17"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="10"/>
+      <c r="C271" s="17"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
-      <c r="C272" s="10"/>
+      <c r="C272" s="17"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
-      <c r="C273" s="10"/>
+      <c r="C273" s="17"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
-      <c r="C274" s="10"/>
+      <c r="C274" s="17"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
-      <c r="C275" s="10"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
-      <c r="C276" s="10"/>
+      <c r="C276" s="17"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
-      <c r="C277" s="10"/>
+      <c r="C277" s="17"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
-      <c r="C278" s="10"/>
+      <c r="C278" s="17"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
-      <c r="C279" s="10"/>
+      <c r="C279" s="17"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
-      <c r="C280" s="10"/>
+      <c r="C280" s="17"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
-      <c r="C281" s="10"/>
+      <c r="C281" s="17"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
-      <c r="C282" s="10"/>
+      <c r="C282" s="17"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
-      <c r="C283" s="10"/>
+      <c r="C283" s="17"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
-      <c r="C284" s="10"/>
+      <c r="C284" s="17"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="10"/>
+      <c r="C285" s="17"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
-      <c r="C286" s="10"/>
+      <c r="C286" s="17"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
-      <c r="C287" s="10"/>
+      <c r="C287" s="17"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
-      <c r="C288" s="10"/>
+      <c r="C288" s="17"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
-      <c r="C289" s="10"/>
+      <c r="C289" s="17"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
-      <c r="C290" s="10"/>
+      <c r="C290" s="17"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
-      <c r="C291" s="10"/>
+      <c r="C291" s="17"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
-      <c r="C292" s="10"/>
+      <c r="C292" s="17"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
-      <c r="C293" s="10"/>
+      <c r="C293" s="17"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
-      <c r="C294" s="10"/>
+      <c r="C294" s="17"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
-      <c r="C295" s="10"/>
+      <c r="C295" s="17"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
-      <c r="C296" s="10"/>
+      <c r="C296" s="17"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
-      <c r="C297" s="10"/>
+      <c r="C297" s="17"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
-      <c r="C298" s="10"/>
+      <c r="C298" s="17"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
-      <c r="C299" s="10"/>
+      <c r="C299" s="17"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="10"/>
+      <c r="C300" s="17"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
-      <c r="C301" s="10"/>
+      <c r="C301" s="17"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
-      <c r="C302" s="10"/>
+      <c r="C302" s="17"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
-      <c r="C303" s="10"/>
+      <c r="C303" s="17"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
-      <c r="C304" s="10"/>
+      <c r="C304" s="17"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
-      <c r="C305" s="10"/>
+      <c r="C305" s="17"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
-      <c r="C306" s="10"/>
+      <c r="C306" s="17"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
-      <c r="C307" s="10"/>
+      <c r="C307" s="17"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
-      <c r="C308" s="10"/>
+      <c r="C308" s="17"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
-      <c r="C309" s="10"/>
+      <c r="C309" s="17"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
-      <c r="C310" s="10"/>
+      <c r="C310" s="17"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
-      <c r="C311" s="10"/>
+      <c r="C311" s="17"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
-      <c r="C312" s="10"/>
+      <c r="C312" s="17"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
-      <c r="C313" s="10"/>
+      <c r="C313" s="17"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
-      <c r="C314" s="10"/>
+      <c r="C314" s="17"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="10"/>
+      <c r="C315" s="17"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
-      <c r="C316" s="10"/>
+      <c r="C316" s="17"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
-      <c r="C317" s="10"/>
+      <c r="C317" s="17"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
-      <c r="C318" s="10"/>
+      <c r="C318" s="17"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
-      <c r="C319" s="10"/>
+      <c r="C319" s="17"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
-      <c r="C320" s="10"/>
+      <c r="C320" s="17"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
-      <c r="C321" s="10"/>
+      <c r="C321" s="17"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
-      <c r="C322" s="10"/>
+      <c r="C322" s="17"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
-      <c r="C323" s="10"/>
+      <c r="C323" s="17"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
-      <c r="C324" s="10"/>
+      <c r="C324" s="17"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
-      <c r="C325" s="10"/>
+      <c r="C325" s="17"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
-      <c r="C326" s="10"/>
+      <c r="C326" s="17"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
-      <c r="C327" s="10"/>
+      <c r="C327" s="17"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
-      <c r="C328" s="10"/>
+      <c r="C328" s="17"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
-      <c r="C329" s="10"/>
+      <c r="C329" s="17"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="10"/>
+      <c r="C330" s="17"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="10"/>
+      <c r="C331" s="17"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="10"/>
+      <c r="C332" s="17"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="10"/>
+      <c r="C333" s="17"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="10"/>
+      <c r="C334" s="17"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
-      <c r="C335" s="10"/>
+      <c r="C335" s="17"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
-      <c r="C336" s="10"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="10"/>
+      <c r="C337" s="17"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
-      <c r="C338" s="10"/>
+      <c r="C338" s="17"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
-      <c r="C339" s="10"/>
+      <c r="C339" s="17"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
-      <c r="C340" s="10"/>
+      <c r="C340" s="17"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
-      <c r="C341" s="10"/>
+      <c r="C341" s="17"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
-      <c r="C342" s="10"/>
+      <c r="C342" s="17"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
-      <c r="C343" s="10"/>
+      <c r="C343" s="17"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
-      <c r="C344" s="10"/>
+      <c r="C344" s="17"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="10"/>
+      <c r="C345" s="17"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
-      <c r="C346" s="10"/>
+      <c r="C346" s="17"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
-      <c r="C347" s="10"/>
+      <c r="C347" s="17"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
-      <c r="C348" s="10"/>
+      <c r="C348" s="17"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
-      <c r="C349" s="10"/>
+      <c r="C349" s="17"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
-      <c r="C350" s="10"/>
+      <c r="C350" s="17"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
-      <c r="C351" s="10"/>
+      <c r="C351" s="17"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
-      <c r="C352" s="10"/>
+      <c r="C352" s="17"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
-      <c r="C353" s="10"/>
+      <c r="C353" s="17"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
-      <c r="C354" s="10"/>
+      <c r="C354" s="17"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
-      <c r="C355" s="10"/>
+      <c r="C355" s="17"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
-      <c r="C356" s="10"/>
+      <c r="C356" s="17"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
-      <c r="C357" s="10"/>
+      <c r="C357" s="17"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
-      <c r="C358" s="10"/>
+      <c r="C358" s="17"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
-      <c r="C359" s="10"/>
+      <c r="C359" s="17"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="10"/>
+      <c r="C360" s="17"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
-      <c r="C361" s="10"/>
+      <c r="C361" s="17"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
-      <c r="C362" s="10"/>
+      <c r="C362" s="17"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
-      <c r="C363" s="10"/>
+      <c r="C363" s="17"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
-      <c r="C364" s="10"/>
+      <c r="C364" s="17"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
-      <c r="C365" s="10"/>
+      <c r="C365" s="17"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="10"/>
+      <c r="C366" s="17"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
-      <c r="C367" s="10"/>
+      <c r="C367" s="17"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
-      <c r="C368" s="10"/>
+      <c r="C368" s="17"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
-      <c r="C369" s="10"/>
+      <c r="C369" s="17"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
-      <c r="C370" s="10"/>
+      <c r="C370" s="17"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
-      <c r="C371" s="10"/>
+      <c r="C371" s="17"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
-      <c r="C372" s="10"/>
+      <c r="C372" s="17"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
-      <c r="C373" s="10"/>
+      <c r="C373" s="17"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
-      <c r="C374" s="10"/>
+      <c r="C374" s="17"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="10"/>
+      <c r="C375" s="17"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
-      <c r="C376" s="10"/>
+      <c r="C376" s="17"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
-      <c r="C377" s="10"/>
+      <c r="C377" s="17"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
-      <c r="C378" s="10"/>
+      <c r="C378" s="17"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="10"/>
+      <c r="C379" s="17"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
-      <c r="C380" s="10"/>
+      <c r="C380" s="17"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
-      <c r="C381" s="10"/>
+      <c r="C381" s="17"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
-      <c r="C382" s="10"/>
+      <c r="C382" s="17"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
-      <c r="C383" s="10"/>
+      <c r="C383" s="17"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
-      <c r="C384" s="10"/>
+      <c r="C384" s="17"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
-      <c r="C385" s="10"/>
+      <c r="C385" s="17"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
-      <c r="C386" s="10"/>
+      <c r="C386" s="17"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
-      <c r="C387" s="10"/>
+      <c r="C387" s="17"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
-      <c r="C388" s="10"/>
+      <c r="C388" s="17"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
-      <c r="C389" s="10"/>
+      <c r="C389" s="17"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="10"/>
+      <c r="C390" s="17"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
-      <c r="C391" s="10"/>
+      <c r="C391" s="17"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
-      <c r="C392" s="10"/>
+      <c r="C392" s="17"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
-      <c r="C393" s="10"/>
+      <c r="C393" s="17"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
-      <c r="C394" s="10"/>
+      <c r="C394" s="17"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
-      <c r="C395" s="10"/>
+      <c r="C395" s="17"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
-      <c r="C396" s="10"/>
+      <c r="C396" s="17"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
-      <c r="C397" s="10"/>
+      <c r="C397" s="17"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="10"/>
+      <c r="C398" s="17"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
-      <c r="C399" s="10"/>
+      <c r="C399" s="17"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
-      <c r="C400" s="10"/>
+      <c r="C400" s="17"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
-      <c r="C401" s="10"/>
+      <c r="C401" s="17"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
-      <c r="C402" s="10"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
-      <c r="C403" s="10"/>
+      <c r="C403" s="17"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
-      <c r="C404" s="10"/>
+      <c r="C404" s="17"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="10"/>
+      <c r="C405" s="17"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
-      <c r="C406" s="10"/>
+      <c r="C406" s="17"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="10"/>
+      <c r="C407" s="17"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="10"/>
+      <c r="C408" s="17"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="10"/>
+      <c r="C409" s="17"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
-      <c r="C410" s="10"/>
+      <c r="C410" s="17"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
-      <c r="C411" s="10"/>
+      <c r="C411" s="17"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
-      <c r="C412" s="10"/>
+      <c r="C412" s="17"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
-      <c r="C413" s="10"/>
+      <c r="C413" s="17"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
-      <c r="C414" s="10"/>
+      <c r="C414" s="17"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
-      <c r="C415" s="10"/>
+      <c r="C415" s="17"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
-      <c r="C416" s="10"/>
+      <c r="C416" s="17"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
-      <c r="C417" s="10"/>
+      <c r="C417" s="17"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
-      <c r="C418" s="10"/>
+      <c r="C418" s="17"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="10"/>
+      <c r="C419" s="17"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="10"/>
+      <c r="C420" s="17"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="10"/>
+      <c r="C421" s="17"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
-      <c r="C422" s="10"/>
+      <c r="C422" s="17"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
-      <c r="C423" s="10"/>
+      <c r="C423" s="17"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
-      <c r="C424" s="10"/>
+      <c r="C424" s="17"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
-      <c r="C425" s="10"/>
+      <c r="C425" s="17"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
-      <c r="C426" s="10"/>
+      <c r="C426" s="17"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="10"/>
+      <c r="C427" s="17"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
-      <c r="C428" s="10"/>
+      <c r="C428" s="17"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
-      <c r="C429" s="10"/>
+      <c r="C429" s="17"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
-      <c r="C430" s="10"/>
+      <c r="C430" s="17"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
-      <c r="C431" s="10"/>
+      <c r="C431" s="17"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
-      <c r="C432" s="10"/>
+      <c r="C432" s="17"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="10"/>
+      <c r="C433" s="17"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
-      <c r="C434" s="10"/>
+      <c r="C434" s="17"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="10"/>
+      <c r="C435" s="17"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
-      <c r="C436" s="10"/>
+      <c r="C436" s="17"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
-      <c r="C437" s="10"/>
+      <c r="C437" s="17"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
-      <c r="C438" s="10"/>
+      <c r="C438" s="17"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
-      <c r="C439" s="10"/>
+      <c r="C439" s="17"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
-      <c r="C440" s="10"/>
+      <c r="C440" s="17"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
-      <c r="C441" s="10"/>
+      <c r="C441" s="17"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
-      <c r="C442" s="10"/>
+      <c r="C442" s="17"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
-      <c r="C443" s="10"/>
+      <c r="C443" s="17"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="10"/>
+      <c r="C444" s="17"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="10"/>
+      <c r="C445" s="17"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="10"/>
+      <c r="C446" s="17"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="10"/>
+      <c r="C447" s="17"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
-      <c r="C448" s="10"/>
+      <c r="C448" s="17"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
-      <c r="C449" s="10"/>
+      <c r="C449" s="17"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="10"/>
+      <c r="C450" s="17"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
-      <c r="C451" s="10"/>
+      <c r="C451" s="17"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
-      <c r="C452" s="10"/>
+      <c r="C452" s="17"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
-      <c r="C453" s="10"/>
+      <c r="C453" s="17"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
-      <c r="C454" s="10"/>
+      <c r="C454" s="17"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
-      <c r="C455" s="10"/>
+      <c r="C455" s="17"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
-      <c r="C456" s="10"/>
+      <c r="C456" s="17"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
-      <c r="C457" s="10"/>
+      <c r="C457" s="17"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
-      <c r="C458" s="10"/>
+      <c r="C458" s="17"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
-      <c r="C459" s="10"/>
+      <c r="C459" s="17"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
-      <c r="C460" s="10"/>
+      <c r="C460" s="17"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="10"/>
+      <c r="C461" s="17"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="10"/>
+      <c r="C462" s="17"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="10"/>
+      <c r="C463" s="17"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="10"/>
+      <c r="C464" s="17"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="10"/>
+      <c r="C465" s="17"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="10"/>
+      <c r="C466" s="17"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="10"/>
+      <c r="C467" s="17"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="10"/>
+      <c r="C468" s="17"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="10"/>
+      <c r="C469" s="17"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="10"/>
+      <c r="C470" s="17"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="10"/>
+      <c r="C471" s="17"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="10"/>
+      <c r="C472" s="17"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="10"/>
+      <c r="C473" s="17"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="10"/>
+      <c r="C474" s="17"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="10"/>
+      <c r="C475" s="17"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="10"/>
+      <c r="C476" s="17"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="10"/>
+      <c r="C477" s="17"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="10"/>
+      <c r="C478" s="17"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="10"/>
+      <c r="C479" s="17"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="10"/>
+      <c r="C480" s="17"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="10"/>
+      <c r="C481" s="17"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="10"/>
+      <c r="C482" s="17"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="10"/>
+      <c r="C483" s="17"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="10"/>
+      <c r="C484" s="17"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="10"/>
+      <c r="C485" s="17"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="10"/>
+      <c r="C486" s="17"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="10"/>
+      <c r="C487" s="17"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="10"/>
+      <c r="C488" s="17"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="10"/>
+      <c r="C489" s="17"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="10"/>
+      <c r="C490" s="17"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="10"/>
+      <c r="C491" s="17"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="10"/>
+      <c r="C492" s="17"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="10"/>
+      <c r="C493" s="17"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="10"/>
+      <c r="C494" s="17"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="10"/>
+      <c r="C495" s="17"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="10"/>
+      <c r="C496" s="17"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="10"/>
+      <c r="C497" s="17"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="10"/>
+      <c r="C498" s="17"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="10"/>
+      <c r="C499" s="17"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="10"/>
+      <c r="C500" s="17"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="10"/>
+      <c r="C501" s="17"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
-      <c r="C502" s="10"/>
+      <c r="C502" s="17"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
-      <c r="C503" s="10"/>
+      <c r="C503" s="17"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
-      <c r="C504" s="10"/>
+      <c r="C504" s="17"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="10"/>
+      <c r="C505" s="17"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
-      <c r="C506" s="10"/>
+      <c r="C506" s="17"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
-      <c r="C507" s="10"/>
+      <c r="C507" s="17"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
-      <c r="C508" s="10"/>
+      <c r="C508" s="17"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
-      <c r="C509" s="10"/>
+      <c r="C509" s="17"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="10"/>
+      <c r="C510" s="17"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
-      <c r="C511" s="10"/>
+      <c r="C511" s="17"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
-      <c r="C512" s="10"/>
+      <c r="C512" s="17"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
-      <c r="C513" s="10"/>
+      <c r="C513" s="17"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
-      <c r="C514" s="10"/>
+      <c r="C514" s="17"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
-      <c r="C515" s="10"/>
+      <c r="C515" s="17"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
-      <c r="C516" s="10"/>
+      <c r="C516" s="17"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
-      <c r="C517" s="10"/>
+      <c r="C517" s="17"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
-      <c r="C518" s="10"/>
+      <c r="C518" s="17"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
-      <c r="C519" s="10"/>
+      <c r="C519" s="17"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
-      <c r="C520" s="10"/>
+      <c r="C520" s="17"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
-      <c r="C521" s="10"/>
+      <c r="C521" s="17"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
-      <c r="C522" s="10"/>
+      <c r="C522" s="17"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
-      <c r="C523" s="10"/>
+      <c r="C523" s="17"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
-      <c r="C524" s="10"/>
+      <c r="C524" s="17"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="10"/>
+      <c r="C525" s="17"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
-      <c r="C526" s="10"/>
+      <c r="C526" s="17"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
-      <c r="C527" s="10"/>
+      <c r="C527" s="17"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
-      <c r="C528" s="10"/>
+      <c r="C528" s="17"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
-      <c r="C529" s="10"/>
+      <c r="C529" s="17"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
-      <c r="C530" s="10"/>
+      <c r="C530" s="17"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
-      <c r="C531" s="10"/>
+      <c r="C531" s="17"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
-      <c r="C532" s="10"/>
+      <c r="C532" s="17"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
-      <c r="C533" s="10"/>
+      <c r="C533" s="17"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
-      <c r="C534" s="10"/>
+      <c r="C534" s="17"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
-      <c r="C535" s="10"/>
+      <c r="C535" s="17"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
-      <c r="C536" s="10"/>
+      <c r="C536" s="17"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
-      <c r="C537" s="10"/>
+      <c r="C537" s="17"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
-      <c r="C538" s="10"/>
+      <c r="C538" s="17"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
-      <c r="C539" s="10"/>
+      <c r="C539" s="17"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="10"/>
+      <c r="C540" s="17"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
-      <c r="C541" s="10"/>
+      <c r="C541" s="17"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
-      <c r="C542" s="10"/>
+      <c r="C542" s="17"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
-      <c r="C543" s="10"/>
+      <c r="C543" s="17"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
-      <c r="C544" s="10"/>
+      <c r="C544" s="17"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
-      <c r="C545" s="10"/>
+      <c r="C545" s="17"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
-      <c r="C546" s="10"/>
+      <c r="C546" s="17"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
-      <c r="C547" s="10"/>
+      <c r="C547" s="17"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
-      <c r="C548" s="10"/>
+      <c r="C548" s="17"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
-      <c r="C549" s="10"/>
+      <c r="C549" s="17"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
-      <c r="C550" s="10"/>
+      <c r="C550" s="17"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
-      <c r="C551" s="10"/>
+      <c r="C551" s="17"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
-      <c r="C552" s="10"/>
+      <c r="C552" s="17"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
-      <c r="C553" s="10"/>
+      <c r="C553" s="17"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
-      <c r="C554" s="10"/>
+      <c r="C554" s="17"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="10"/>
+      <c r="C555" s="17"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
-      <c r="C556" s="10"/>
+      <c r="C556" s="17"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
-      <c r="C557" s="10"/>
+      <c r="C557" s="17"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
-      <c r="C558" s="10"/>
+      <c r="C558" s="17"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
-      <c r="C559" s="10"/>
+      <c r="C559" s="17"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
-      <c r="C560" s="10"/>
+      <c r="C560" s="17"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
-      <c r="C561" s="10"/>
+      <c r="C561" s="17"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
-      <c r="C562" s="10"/>
+      <c r="C562" s="17"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
-      <c r="C563" s="10"/>
+      <c r="C563" s="17"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
-      <c r="C564" s="10"/>
+      <c r="C564" s="17"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
-      <c r="C565" s="10"/>
+      <c r="C565" s="17"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
-      <c r="C566" s="10"/>
+      <c r="C566" s="17"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
-      <c r="C567" s="10"/>
+      <c r="C567" s="17"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
-      <c r="C568" s="10"/>
+      <c r="C568" s="17"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
-      <c r="C569" s="10"/>
+      <c r="C569" s="17"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="10"/>
+      <c r="C570" s="17"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
-      <c r="C571" s="10"/>
+      <c r="C571" s="17"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
-      <c r="C572" s="10"/>
+      <c r="C572" s="17"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
-      <c r="C573" s="10"/>
+      <c r="C573" s="17"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
-      <c r="C574" s="10"/>
+      <c r="C574" s="17"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
-      <c r="C575" s="10"/>
+      <c r="C575" s="17"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
-      <c r="C576" s="10"/>
+      <c r="C576" s="17"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
-      <c r="C577" s="10"/>
+      <c r="C577" s="17"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
-      <c r="C578" s="10"/>
+      <c r="C578" s="17"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
-      <c r="C579" s="10"/>
+      <c r="C579" s="17"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
-      <c r="C580" s="10"/>
+      <c r="C580" s="17"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
-      <c r="C581" s="10"/>
+      <c r="C581" s="17"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
-      <c r="C582" s="10"/>
+      <c r="C582" s="17"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
-      <c r="C583" s="10"/>
+      <c r="C583" s="17"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
-      <c r="C584" s="10"/>
+      <c r="C584" s="17"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="10"/>
+      <c r="C585" s="17"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
-      <c r="C586" s="10"/>
+      <c r="C586" s="17"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
-      <c r="C587" s="10"/>
+      <c r="C587" s="17"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
-      <c r="C588" s="10"/>
+      <c r="C588" s="17"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
-      <c r="C589" s="10"/>
+      <c r="C589" s="17"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
-      <c r="C590" s="10"/>
+      <c r="C590" s="17"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
-      <c r="C591" s="10"/>
+      <c r="C591" s="17"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
-      <c r="C592" s="10"/>
+      <c r="C592" s="17"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
-      <c r="C593" s="10"/>
+      <c r="C593" s="17"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
-      <c r="C594" s="10"/>
+      <c r="C594" s="17"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
-      <c r="C595" s="10"/>
+      <c r="C595" s="17"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
-      <c r="C596" s="10"/>
+      <c r="C596" s="17"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
-      <c r="C597" s="10"/>
+      <c r="C597" s="17"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
-      <c r="C598" s="10"/>
+      <c r="C598" s="17"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
-      <c r="C599" s="10"/>
+      <c r="C599" s="17"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
-      <c r="C600" s="10"/>
+      <c r="C600" s="17"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
-      <c r="C601" s="10"/>
+      <c r="C601" s="17"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
-      <c r="C602" s="10"/>
+      <c r="C602" s="17"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
-      <c r="C603" s="10"/>
+      <c r="C603" s="17"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
-      <c r="C604" s="10"/>
+      <c r="C604" s="17"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
-      <c r="C605" s="10"/>
+      <c r="C605" s="17"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
-      <c r="C606" s="10"/>
+      <c r="C606" s="17"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
-      <c r="C607" s="10"/>
+      <c r="C607" s="17"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
-      <c r="C608" s="10"/>
+      <c r="C608" s="17"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
-      <c r="C609" s="10"/>
+      <c r="C609" s="17"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
-      <c r="C610" s="10"/>
+      <c r="C610" s="17"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
-      <c r="C611" s="10"/>
+      <c r="C611" s="17"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
-      <c r="C612" s="10"/>
+      <c r="C612" s="17"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
-      <c r="C613" s="10"/>
+      <c r="C613" s="17"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
-      <c r="C614" s="10"/>
+      <c r="C614" s="17"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
-      <c r="C615" s="10"/>
+      <c r="C615" s="17"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
-      <c r="C616" s="10"/>
+      <c r="C616" s="17"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
-      <c r="C617" s="10"/>
+      <c r="C617" s="17"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
-      <c r="C618" s="10"/>
+      <c r="C618" s="17"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
-      <c r="C619" s="10"/>
+      <c r="C619" s="17"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
-      <c r="C620" s="10"/>
+      <c r="C620" s="17"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
-      <c r="C621" s="10"/>
+      <c r="C621" s="17"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
-      <c r="C622" s="10"/>
+      <c r="C622" s="17"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
-      <c r="C623" s="10"/>
+      <c r="C623" s="17"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
-      <c r="C624" s="10"/>
+      <c r="C624" s="17"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
-      <c r="C625" s="10"/>
+      <c r="C625" s="17"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
-      <c r="C626" s="10"/>
+      <c r="C626" s="17"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
-      <c r="C627" s="10"/>
+      <c r="C627" s="17"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
-      <c r="C628" s="10"/>
+      <c r="C628" s="17"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
-      <c r="C629" s="10"/>
+      <c r="C629" s="17"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
-      <c r="C630" s="10"/>
+      <c r="C630" s="17"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
-      <c r="C631" s="10"/>
+      <c r="C631" s="17"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
-      <c r="C632" s="10"/>
+      <c r="C632" s="17"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
-      <c r="C633" s="10"/>
+      <c r="C633" s="17"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
-      <c r="C634" s="10"/>
+      <c r="C634" s="17"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
-      <c r="C635" s="10"/>
+      <c r="C635" s="17"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
-      <c r="C636" s="10"/>
+      <c r="C636" s="17"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
-      <c r="C637" s="10"/>
+      <c r="C637" s="17"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
-      <c r="C638" s="10"/>
+      <c r="C638" s="17"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
-      <c r="C639" s="10"/>
+      <c r="C639" s="17"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
-      <c r="C640" s="10"/>
+      <c r="C640" s="17"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
-      <c r="C641" s="10"/>
+      <c r="C641" s="17"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
-      <c r="C642" s="10"/>
+      <c r="C642" s="17"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
-      <c r="C643" s="10"/>
+      <c r="C643" s="17"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
-      <c r="C644" s="10"/>
+      <c r="C644" s="17"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
-      <c r="C645" s="10"/>
+      <c r="C645" s="17"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
-      <c r="C646" s="10"/>
+      <c r="C646" s="17"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
-      <c r="C647" s="10"/>
+      <c r="C647" s="17"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
-      <c r="C648" s="10"/>
+      <c r="C648" s="17"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
-      <c r="C649" s="10"/>
+      <c r="C649" s="17"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
-      <c r="C650" s="10"/>
+      <c r="C650" s="17"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
-      <c r="C651" s="10"/>
+      <c r="C651" s="17"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
-      <c r="C652" s="10"/>
+      <c r="C652" s="17"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
-      <c r="C653" s="10"/>
+      <c r="C653" s="17"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
-      <c r="C654" s="10"/>
+      <c r="C654" s="17"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
-      <c r="C655" s="10"/>
+      <c r="C655" s="17"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
-      <c r="C656" s="10"/>
+      <c r="C656" s="17"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
-      <c r="C657" s="10"/>
+      <c r="C657" s="17"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
-      <c r="C658" s="10"/>
+      <c r="C658" s="17"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
-      <c r="C659" s="10"/>
+      <c r="C659" s="17"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
-      <c r="C660" s="10"/>
+      <c r="C660" s="17"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
-      <c r="C661" s="10"/>
+      <c r="C661" s="17"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
-      <c r="C662" s="10"/>
+      <c r="C662" s="17"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
-      <c r="C663" s="10"/>
+      <c r="C663" s="17"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
-      <c r="C664" s="10"/>
+      <c r="C664" s="17"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
-      <c r="C665" s="10"/>
+      <c r="C665" s="17"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
-      <c r="C666" s="10"/>
+      <c r="C666" s="17"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
-      <c r="C667" s="10"/>
+      <c r="C667" s="17"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
-      <c r="C668" s="10"/>
+      <c r="C668" s="17"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
-      <c r="C669" s="10"/>
+      <c r="C669" s="17"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
-      <c r="C670" s="10"/>
+      <c r="C670" s="17"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
-      <c r="C671" s="10"/>
+      <c r="C671" s="17"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
-      <c r="C672" s="10"/>
+      <c r="C672" s="17"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
-      <c r="C673" s="10"/>
+      <c r="C673" s="17"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
-      <c r="C674" s="10"/>
+      <c r="C674" s="17"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
-      <c r="C675" s="10"/>
+      <c r="C675" s="17"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
-      <c r="C676" s="10"/>
+      <c r="C676" s="17"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
-      <c r="C677" s="10"/>
+      <c r="C677" s="17"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
-      <c r="C678" s="10"/>
+      <c r="C678" s="17"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
-      <c r="C679" s="10"/>
+      <c r="C679" s="17"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
-      <c r="C680" s="10"/>
+      <c r="C680" s="17"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
-      <c r="C681" s="10"/>
+      <c r="C681" s="17"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
-      <c r="C682" s="10"/>
+      <c r="C682" s="17"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
-      <c r="C683" s="10"/>
+      <c r="C683" s="17"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
-      <c r="C684" s="10"/>
+      <c r="C684" s="17"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
-      <c r="C685" s="10"/>
+      <c r="C685" s="17"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
-      <c r="C686" s="10"/>
+      <c r="C686" s="17"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
-      <c r="C687" s="10"/>
+      <c r="C687" s="17"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
-      <c r="C688" s="10"/>
+      <c r="C688" s="17"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
-      <c r="C689" s="10"/>
+      <c r="C689" s="17"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
-      <c r="C690" s="10"/>
+      <c r="C690" s="17"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
-      <c r="C691" s="10"/>
+      <c r="C691" s="17"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
-      <c r="C692" s="10"/>
+      <c r="C692" s="17"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
-      <c r="C693" s="10"/>
+      <c r="C693" s="17"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
-      <c r="C694" s="10"/>
+      <c r="C694" s="17"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
-      <c r="C695" s="10"/>
+      <c r="C695" s="17"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
-      <c r="C696" s="10"/>
+      <c r="C696" s="17"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
-      <c r="C697" s="10"/>
+      <c r="C697" s="17"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
-      <c r="C698" s="10"/>
+      <c r="C698" s="17"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
-      <c r="C699" s="10"/>
+      <c r="C699" s="17"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
-      <c r="C700" s="10"/>
+      <c r="C700" s="17"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
-      <c r="C701" s="10"/>
+      <c r="C701" s="17"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
-      <c r="C702" s="10"/>
+      <c r="C702" s="17"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
-      <c r="C703" s="10"/>
+      <c r="C703" s="17"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
-      <c r="C704" s="10"/>
+      <c r="C704" s="17"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
-      <c r="C705" s="10"/>
+      <c r="C705" s="17"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
-      <c r="C706" s="10"/>
+      <c r="C706" s="17"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
-      <c r="C707" s="10"/>
+      <c r="C707" s="17"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
-      <c r="C708" s="10"/>
+      <c r="C708" s="17"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
-      <c r="C709" s="10"/>
+      <c r="C709" s="17"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
-      <c r="C710" s="10"/>
+      <c r="C710" s="17"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
-      <c r="C711" s="10"/>
+      <c r="C711" s="17"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
-      <c r="C712" s="10"/>
+      <c r="C712" s="17"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
-      <c r="C713" s="10"/>
+      <c r="C713" s="17"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
-      <c r="C714" s="10"/>
+      <c r="C714" s="17"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
-      <c r="C715" s="10"/>
+      <c r="C715" s="17"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
-      <c r="C716" s="10"/>
+      <c r="C716" s="17"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
-      <c r="C717" s="10"/>
+      <c r="C717" s="17"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
-      <c r="C718" s="10"/>
+      <c r="C718" s="17"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
-      <c r="C719" s="10"/>
+      <c r="C719" s="17"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
-      <c r="C720" s="10"/>
+      <c r="C720" s="17"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
-      <c r="C721" s="10"/>
+      <c r="C721" s="17"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
-      <c r="C722" s="10"/>
+      <c r="C722" s="17"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
-      <c r="C723" s="10"/>
+      <c r="C723" s="17"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
-      <c r="C724" s="10"/>
+      <c r="C724" s="17"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
-      <c r="C725" s="10"/>
+      <c r="C725" s="17"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
-      <c r="C726" s="10"/>
+      <c r="C726" s="17"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
-      <c r="C727" s="10"/>
+      <c r="C727" s="17"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
-      <c r="C728" s="10"/>
+      <c r="C728" s="17"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
-      <c r="C729" s="10"/>
+      <c r="C729" s="17"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
-      <c r="C730" s="10"/>
+      <c r="C730" s="17"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
-      <c r="C731" s="10"/>
+      <c r="C731" s="17"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
-      <c r="C732" s="10"/>
+      <c r="C732" s="17"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
-      <c r="C733" s="10"/>
+      <c r="C733" s="17"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
-      <c r="C734" s="10"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="3"/>
-      <c r="B735" s="3"/>
-      <c r="C735" s="10"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="3"/>
-      <c r="B736" s="3"/>
-      <c r="C736" s="10"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="3"/>
-      <c r="B737" s="3"/>
-      <c r="C737" s="10"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="3"/>
-      <c r="B738" s="3"/>
-      <c r="C738" s="10"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="3"/>
-      <c r="B739" s="3"/>
-      <c r="C739" s="10"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="3"/>
-      <c r="B740" s="3"/>
-      <c r="C740" s="10"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="3"/>
-      <c r="B741" s="3"/>
-      <c r="C741" s="10"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="3"/>
-      <c r="B742" s="3"/>
-      <c r="C742" s="10"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="3"/>
-      <c r="B743" s="3"/>
-      <c r="C743" s="10"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="3"/>
-      <c r="B744" s="3"/>
-      <c r="C744" s="10"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="3"/>
-      <c r="B745" s="3"/>
-      <c r="C745" s="10"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="3"/>
-      <c r="B746" s="3"/>
-      <c r="C746" s="10"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="3"/>
-      <c r="B747" s="3"/>
-      <c r="C747" s="10"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="3"/>
-      <c r="B748" s="3"/>
-      <c r="C748" s="10"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="3"/>
-      <c r="B749" s="3"/>
-      <c r="C749" s="10"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="3"/>
-      <c r="B750" s="3"/>
-      <c r="C750" s="10"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="3"/>
-      <c r="B751" s="3"/>
-      <c r="C751" s="10"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="3"/>
-      <c r="B752" s="3"/>
-      <c r="C752" s="10"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="3"/>
-      <c r="B753" s="3"/>
-      <c r="C753" s="10"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="3"/>
-      <c r="B754" s="3"/>
-      <c r="C754" s="10"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="3"/>
-      <c r="B755" s="3"/>
-      <c r="C755" s="10"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="3"/>
-      <c r="B756" s="3"/>
-      <c r="C756" s="10"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="3"/>
-      <c r="B757" s="3"/>
-      <c r="C757" s="10"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="3"/>
-      <c r="B758" s="3"/>
-      <c r="C758" s="10"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="3"/>
-      <c r="B759" s="3"/>
-      <c r="C759" s="10"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="3"/>
-      <c r="B760" s="3"/>
-      <c r="C760" s="10"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="3"/>
-      <c r="B761" s="3"/>
-      <c r="C761" s="10"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="3"/>
-      <c r="B762" s="3"/>
-      <c r="C762" s="10"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="3"/>
-      <c r="B763" s="3"/>
-      <c r="C763" s="10"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="3"/>
-      <c r="B764" s="3"/>
-      <c r="C764" s="10"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="3"/>
-      <c r="B765" s="3"/>
-      <c r="C765" s="10"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="3"/>
-      <c r="B766" s="3"/>
-      <c r="C766" s="10"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="3"/>
-      <c r="B767" s="3"/>
-      <c r="C767" s="10"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="3"/>
-      <c r="B768" s="3"/>
-      <c r="C768" s="10"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="3"/>
-      <c r="B769" s="3"/>
-      <c r="C769" s="10"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="3"/>
-      <c r="B770" s="3"/>
-      <c r="C770" s="10"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="3"/>
-      <c r="B771" s="3"/>
-      <c r="C771" s="10"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="3"/>
-      <c r="B772" s="3"/>
-      <c r="C772" s="10"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="3"/>
-      <c r="B773" s="3"/>
-      <c r="C773" s="10"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="3"/>
-      <c r="B774" s="3"/>
-      <c r="C774" s="10"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="3"/>
-      <c r="B775" s="3"/>
-      <c r="C775" s="10"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="3"/>
-      <c r="B776" s="3"/>
-      <c r="C776" s="10"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="3"/>
-      <c r="B777" s="3"/>
-      <c r="C777" s="10"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="3"/>
-      <c r="B778" s="3"/>
-      <c r="C778" s="10"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="3"/>
-      <c r="B779" s="3"/>
-      <c r="C779" s="10"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="3"/>
-      <c r="B780" s="3"/>
-      <c r="C780" s="10"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="3"/>
-      <c r="B781" s="3"/>
-      <c r="C781" s="10"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="3"/>
-      <c r="B782" s="3"/>
-      <c r="C782" s="10"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="3"/>
-      <c r="B783" s="3"/>
-      <c r="C783" s="10"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="3"/>
-      <c r="B784" s="3"/>
-      <c r="C784" s="10"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="3"/>
-      <c r="B785" s="3"/>
-      <c r="C785" s="10"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="3"/>
-      <c r="B786" s="3"/>
-      <c r="C786" s="10"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="3"/>
-      <c r="B787" s="3"/>
-      <c r="C787" s="10"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="3"/>
-      <c r="B788" s="3"/>
-      <c r="C788" s="10"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="3"/>
-      <c r="B789" s="3"/>
-      <c r="C789" s="10"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="3"/>
-      <c r="B790" s="3"/>
-      <c r="C790" s="10"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="3"/>
-      <c r="B791" s="3"/>
-      <c r="C791" s="10"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="3"/>
-      <c r="B792" s="3"/>
-      <c r="C792" s="10"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="3"/>
-      <c r="B793" s="3"/>
-      <c r="C793" s="10"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="3"/>
-      <c r="B794" s="3"/>
-      <c r="C794" s="10"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="3"/>
-      <c r="B795" s="3"/>
-      <c r="C795" s="10"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="3"/>
-      <c r="B796" s="3"/>
-      <c r="C796" s="10"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="3"/>
-      <c r="B797" s="3"/>
-      <c r="C797" s="10"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="3"/>
-      <c r="B798" s="3"/>
-      <c r="C798" s="10"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="3"/>
-      <c r="B799" s="3"/>
-      <c r="C799" s="10"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="3"/>
-      <c r="B800" s="3"/>
-      <c r="C800" s="10"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="3"/>
-      <c r="B801" s="3"/>
-      <c r="C801" s="10"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="3"/>
-      <c r="B802" s="3"/>
-      <c r="C802" s="10"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="3"/>
-      <c r="B803" s="3"/>
-      <c r="C803" s="10"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="3"/>
-      <c r="B804" s="3"/>
-      <c r="C804" s="10"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="3"/>
-      <c r="B805" s="3"/>
-      <c r="C805" s="10"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="3"/>
-      <c r="B806" s="3"/>
-      <c r="C806" s="10"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="3"/>
-      <c r="B807" s="3"/>
-      <c r="C807" s="10"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="3"/>
-      <c r="B808" s="3"/>
-      <c r="C808" s="10"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="3"/>
-      <c r="B809" s="3"/>
-      <c r="C809" s="10"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="3"/>
-      <c r="B810" s="3"/>
-      <c r="C810" s="10"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="3"/>
-      <c r="B811" s="3"/>
-      <c r="C811" s="10"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="3"/>
-      <c r="B812" s="3"/>
-      <c r="C812" s="10"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="3"/>
-      <c r="B813" s="3"/>
-      <c r="C813" s="10"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="3"/>
-      <c r="B814" s="3"/>
-      <c r="C814" s="10"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="3"/>
-      <c r="B815" s="3"/>
-      <c r="C815" s="10"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="3"/>
-      <c r="B816" s="3"/>
-      <c r="C816" s="10"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="3"/>
-      <c r="B817" s="3"/>
-      <c r="C817" s="10"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="3"/>
-      <c r="B818" s="3"/>
-      <c r="C818" s="10"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="3"/>
-      <c r="B819" s="3"/>
-      <c r="C819" s="10"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="3"/>
-      <c r="B820" s="3"/>
-      <c r="C820" s="10"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="3"/>
-      <c r="B821" s="3"/>
-      <c r="C821" s="10"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="3"/>
-      <c r="B822" s="3"/>
-      <c r="C822" s="10"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="3"/>
-      <c r="B823" s="3"/>
-      <c r="C823" s="10"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="3"/>
-      <c r="B824" s="3"/>
-      <c r="C824" s="10"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="3"/>
-      <c r="B825" s="3"/>
-      <c r="C825" s="10"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="3"/>
-      <c r="B826" s="3"/>
-      <c r="C826" s="10"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="3"/>
-      <c r="B827" s="3"/>
-      <c r="C827" s="10"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="3"/>
-      <c r="B828" s="3"/>
-      <c r="C828" s="10"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="3"/>
-      <c r="B829" s="3"/>
-      <c r="C829" s="10"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="3"/>
-      <c r="B830" s="3"/>
-      <c r="C830" s="10"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="3"/>
-      <c r="B831" s="3"/>
-      <c r="C831" s="10"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="3"/>
-      <c r="B832" s="3"/>
-      <c r="C832" s="10"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="3"/>
-      <c r="B833" s="3"/>
-      <c r="C833" s="10"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="3"/>
-      <c r="B834" s="3"/>
-      <c r="C834" s="10"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="3"/>
-      <c r="B835" s="3"/>
-      <c r="C835" s="10"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="3"/>
-      <c r="B836" s="3"/>
-      <c r="C836" s="10"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="3"/>
-      <c r="B837" s="3"/>
-      <c r="C837" s="10"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="3"/>
-      <c r="B838" s="3"/>
-      <c r="C838" s="10"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="3"/>
-      <c r="B839" s="3"/>
-      <c r="C839" s="10"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="3"/>
-      <c r="B840" s="3"/>
-      <c r="C840" s="10"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="3"/>
-      <c r="B841" s="3"/>
-      <c r="C841" s="10"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="3"/>
-      <c r="B842" s="3"/>
-      <c r="C842" s="10"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="3"/>
-      <c r="B843" s="3"/>
-      <c r="C843" s="10"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="3"/>
-      <c r="B844" s="3"/>
-      <c r="C844" s="10"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="3"/>
-      <c r="B845" s="3"/>
-      <c r="C845" s="10"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="3"/>
-      <c r="B846" s="3"/>
-      <c r="C846" s="10"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="3"/>
-      <c r="B847" s="3"/>
-      <c r="C847" s="10"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="3"/>
-      <c r="B848" s="3"/>
-      <c r="C848" s="10"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="3"/>
-      <c r="B849" s="3"/>
-      <c r="C849" s="10"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="3"/>
-      <c r="B850" s="3"/>
-      <c r="C850" s="10"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="3"/>
-      <c r="B851" s="3"/>
-      <c r="C851" s="10"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="3"/>
-      <c r="B852" s="3"/>
-      <c r="C852" s="10"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="3"/>
-      <c r="B853" s="3"/>
-      <c r="C853" s="10"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="3"/>
-      <c r="B854" s="3"/>
-      <c r="C854" s="10"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="3"/>
-      <c r="B855" s="3"/>
-      <c r="C855" s="10"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="3"/>
-      <c r="B856" s="3"/>
-      <c r="C856" s="10"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="3"/>
-      <c r="B857" s="3"/>
-      <c r="C857" s="10"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="3"/>
-      <c r="B858" s="3"/>
-      <c r="C858" s="10"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="3"/>
-      <c r="B859" s="3"/>
-      <c r="C859" s="10"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="3"/>
-      <c r="B860" s="3"/>
-      <c r="C860" s="10"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="3"/>
-      <c r="B861" s="3"/>
-      <c r="C861" s="10"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="3"/>
-      <c r="B862" s="3"/>
-      <c r="C862" s="10"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="3"/>
-      <c r="B863" s="3"/>
-      <c r="C863" s="10"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="3"/>
-      <c r="B864" s="3"/>
-      <c r="C864" s="10"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="3"/>
-      <c r="B865" s="3"/>
-      <c r="C865" s="10"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="3"/>
-      <c r="B866" s="3"/>
-      <c r="C866" s="10"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="3"/>
-      <c r="B867" s="3"/>
-      <c r="C867" s="10"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="3"/>
-      <c r="B868" s="3"/>
-      <c r="C868" s="10"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="3"/>
-      <c r="B869" s="3"/>
-      <c r="C869" s="10"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="3"/>
-      <c r="B870" s="3"/>
-      <c r="C870" s="10"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="3"/>
-      <c r="B871" s="3"/>
-      <c r="C871" s="10"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="3"/>
-      <c r="B872" s="3"/>
-      <c r="C872" s="10"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="3"/>
-      <c r="B873" s="3"/>
-      <c r="C873" s="10"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="3"/>
-      <c r="B874" s="3"/>
-      <c r="C874" s="10"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="3"/>
-      <c r="B875" s="3"/>
-      <c r="C875" s="10"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="3"/>
-      <c r="B876" s="3"/>
-      <c r="C876" s="10"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="3"/>
-      <c r="B877" s="3"/>
-      <c r="C877" s="10"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="3"/>
-      <c r="B878" s="3"/>
-      <c r="C878" s="10"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="3"/>
-      <c r="B879" s="3"/>
-      <c r="C879" s="10"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="3"/>
-      <c r="B880" s="3"/>
-      <c r="C880" s="10"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="3"/>
-      <c r="B881" s="3"/>
-      <c r="C881" s="10"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="3"/>
-      <c r="B882" s="3"/>
-      <c r="C882" s="10"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="3"/>
-      <c r="B883" s="3"/>
-      <c r="C883" s="10"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="3"/>
-      <c r="B884" s="3"/>
-      <c r="C884" s="10"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="3"/>
-      <c r="B885" s="3"/>
-      <c r="C885" s="10"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="3"/>
-      <c r="B886" s="3"/>
-      <c r="C886" s="10"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="3"/>
-      <c r="B887" s="3"/>
-      <c r="C887" s="10"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="3"/>
-      <c r="B888" s="3"/>
-      <c r="C888" s="10"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="3"/>
-      <c r="B889" s="3"/>
-      <c r="C889" s="10"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="3"/>
-      <c r="B890" s="3"/>
-      <c r="C890" s="10"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="3"/>
-      <c r="B891" s="3"/>
-      <c r="C891" s="10"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="3"/>
-      <c r="B892" s="3"/>
-      <c r="C892" s="10"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="3"/>
-      <c r="B893" s="3"/>
-      <c r="C893" s="10"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="3"/>
-      <c r="B894" s="3"/>
-      <c r="C894" s="10"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="3"/>
-      <c r="B895" s="3"/>
-      <c r="C895" s="10"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="3"/>
-      <c r="B896" s="3"/>
-      <c r="C896" s="10"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="3"/>
-      <c r="B897" s="3"/>
-      <c r="C897" s="10"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="3"/>
-      <c r="B898" s="3"/>
-      <c r="C898" s="10"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="3"/>
-      <c r="B899" s="3"/>
-      <c r="C899" s="10"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="3"/>
-      <c r="B900" s="3"/>
-      <c r="C900" s="10"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="3"/>
-      <c r="B901" s="3"/>
-      <c r="C901" s="10"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="3"/>
-      <c r="B902" s="3"/>
-      <c r="C902" s="10"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="3"/>
-      <c r="B903" s="3"/>
-      <c r="C903" s="10"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="3"/>
-      <c r="B904" s="3"/>
-      <c r="C904" s="10"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="3"/>
-      <c r="B905" s="3"/>
-      <c r="C905" s="10"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="3"/>
-      <c r="B906" s="3"/>
-      <c r="C906" s="10"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="3"/>
-      <c r="B907" s="3"/>
-      <c r="C907" s="10"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="3"/>
-      <c r="B908" s="3"/>
-      <c r="C908" s="10"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="3"/>
-      <c r="B909" s="3"/>
-      <c r="C909" s="10"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="3"/>
-      <c r="B910" s="3"/>
-      <c r="C910" s="10"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="3"/>
-      <c r="B911" s="3"/>
-      <c r="C911" s="10"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="3"/>
-      <c r="B912" s="3"/>
-      <c r="C912" s="10"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="3"/>
-      <c r="B913" s="3"/>
-      <c r="C913" s="10"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="3"/>
-      <c r="B914" s="3"/>
-      <c r="C914" s="10"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="3"/>
-      <c r="B915" s="3"/>
-      <c r="C915" s="10"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="3"/>
-      <c r="B916" s="3"/>
-      <c r="C916" s="10"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="3"/>
-      <c r="B917" s="3"/>
-      <c r="C917" s="10"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="3"/>
-      <c r="B918" s="3"/>
-      <c r="C918" s="10"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="3"/>
-      <c r="B919" s="3"/>
-      <c r="C919" s="10"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="3"/>
-      <c r="B920" s="3"/>
-      <c r="C920" s="10"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="3"/>
-      <c r="B921" s="3"/>
-      <c r="C921" s="10"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="3"/>
-      <c r="B922" s="3"/>
-      <c r="C922" s="10"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="3"/>
-      <c r="B923" s="3"/>
-      <c r="C923" s="10"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="3"/>
-      <c r="B924" s="3"/>
-      <c r="C924" s="10"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="3"/>
-      <c r="B925" s="3"/>
-      <c r="C925" s="10"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="3"/>
-      <c r="B926" s="3"/>
-      <c r="C926" s="10"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="3"/>
-      <c r="B927" s="3"/>
-      <c r="C927" s="10"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="3"/>
-      <c r="B928" s="3"/>
-      <c r="C928" s="10"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="3"/>
-      <c r="B929" s="3"/>
-      <c r="C929" s="10"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="3"/>
-      <c r="B930" s="3"/>
-      <c r="C930" s="10"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="3"/>
-      <c r="B931" s="3"/>
-      <c r="C931" s="10"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="3"/>
-      <c r="B932" s="3"/>
-      <c r="C932" s="10"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="3"/>
-      <c r="B933" s="3"/>
-      <c r="C933" s="10"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="3"/>
-      <c r="B934" s="3"/>
-      <c r="C934" s="10"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="3"/>
-      <c r="B935" s="3"/>
-      <c r="C935" s="10"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="3"/>
-      <c r="B936" s="3"/>
-      <c r="C936" s="10"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="3"/>
-      <c r="B937" s="3"/>
-      <c r="C937" s="10"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="3"/>
-      <c r="B938" s="3"/>
-      <c r="C938" s="10"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="3"/>
-      <c r="B939" s="3"/>
-      <c r="C939" s="10"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="3"/>
-      <c r="B940" s="3"/>
-      <c r="C940" s="10"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="3"/>
-      <c r="B941" s="3"/>
-      <c r="C941" s="10"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="3"/>
-      <c r="B942" s="3"/>
-      <c r="C942" s="10"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="3"/>
-      <c r="B943" s="3"/>
-      <c r="C943" s="10"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="3"/>
-      <c r="B944" s="3"/>
-      <c r="C944" s="10"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="3"/>
-      <c r="B945" s="3"/>
-      <c r="C945" s="10"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="3"/>
-      <c r="B946" s="3"/>
-      <c r="C946" s="10"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="3"/>
-      <c r="B947" s="3"/>
-      <c r="C947" s="10"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="3"/>
-      <c r="B948" s="3"/>
-      <c r="C948" s="10"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="3"/>
-      <c r="B949" s="3"/>
-      <c r="C949" s="10"/>
+      <c r="C734" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C242"/>
-    <hyperlink r:id="rId2" ref="C243"/>
-    <hyperlink r:id="rId3" ref="C244"/>
-    <hyperlink r:id="rId4" ref="C245"/>
-    <hyperlink r:id="rId5" ref="C246"/>
+    <hyperlink r:id="rId1" ref="C27"/>
+    <hyperlink r:id="rId2" ref="C28"/>
+    <hyperlink r:id="rId3" ref="C29"/>
+    <hyperlink r:id="rId4" ref="C30"/>
+    <hyperlink r:id="rId5" ref="C31"/>
   </hyperlinks>
   <drawing r:id="rId6"/>
 </worksheet>
